--- a/main/StructureDefinition-MyPatient.xlsx
+++ b/main/StructureDefinition-MyPatient.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://gefyra.info/training/StructureDefinition/MyPatient</t>
+    <t>http://gefyra.info/simone/StructureDefinition/MyPatient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T13:05:27+00:00</t>
+    <t>2026-02-10T08:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-MyPatient.xlsx
+++ b/main/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T08:26:21+00:00</t>
+    <t>2026-02-10T10:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
